--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3726.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3726.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.272385909052562</v>
+        <v>0.9211618304252625</v>
       </c>
       <c r="B1">
-        <v>2.418846124341132</v>
+        <v>2.683574676513672</v>
       </c>
       <c r="C1">
-        <v>5.820626450973467</v>
+        <v>2.539758682250977</v>
       </c>
       <c r="D1">
-        <v>2.735123099495878</v>
+        <v>2.541419267654419</v>
       </c>
       <c r="E1">
-        <v>1.111063993074482</v>
+        <v>1.889025568962097</v>
       </c>
     </row>
   </sheetData>
